--- a/documentation/bom-component-request.xlsx
+++ b/documentation/bom-component-request.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13545" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="12315" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -139,15 +139,6 @@
     <t>MCC</t>
   </si>
   <si>
-    <t xml:space="preserve">SK54L-TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schottky Diodes &amp; Rectifiers 40V, 5A </t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/833-SK54L-TP</t>
-  </si>
-  <si>
     <t>B5817w</t>
   </si>
   <si>
@@ -157,19 +148,28 @@
     <t>https://eu.mouser.com/ProductDetail/833-B5817W-TP</t>
   </si>
   <si>
+    <t>LRMAP3920B-R0007FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Sense Resistors - SMD 1.0mOHMS 8W 1% AEC-Q200 </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Bourns/CSS2H-3920R-1L00FE?qs=sGAEpiMZZMtlleCFQhR%2FzRv21WPTCkfbP65ISb40hY5JeUeR6gbObQ%3D%3D</t>
+  </si>
+  <si>
     <t>Sense Resistors</t>
   </si>
   <si>
     <t>Bourns</t>
   </si>
   <si>
-    <t>LRMAP3920B-R0007FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Sense Resistors - SMD 1.0mOHMS 8W 1% AEC-Q200 </t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Bourns/CSS2H-3920R-1L00FE?qs=sGAEpiMZZMtlleCFQhR%2FzRv21WPTCkfbP65ISb40hY5JeUeR6gbObQ%3D%3D</t>
+    <t>NCU18WF104J60RB</t>
+  </si>
+  <si>
+    <t>NTC (Negative Temperature Coefficient) Thermistors 100kohm 1608 SMD 0.05</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Murata-Electronics/NCU18WF104J60RB?qs=sGAEpiMZZMuBd0%252BwiCVS22pDpu%2FooVvOgr9XH7US5LzmmZTwDKfVRQ%3D%3D</t>
   </si>
   <si>
     <t>NTC</t>
@@ -178,13 +178,13 @@
     <t>Murata</t>
   </si>
   <si>
-    <t>NCU18WF104J60RB</t>
-  </si>
-  <si>
-    <t>NTC (Negative Temperature Coefficient) Thermistors 100kohm 1608 SMD 0.05</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Murata-Electronics/NCU18WF104J60RB?qs=sGAEpiMZZMuBd0%252BwiCVS22pDpu%2FooVvOgr9XH7US5LzmmZTwDKfVRQ%3D%3D</t>
+    <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors 100 OHM 1%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100RL?qs=sGAEpiMZZMvdGkrng054txdMlaQGj9fiaLtoULAqhv0%3D</t>
   </si>
   <si>
     <t>Resistors</t>
@@ -193,15 +193,6 @@
     <t>Yageo</t>
   </si>
   <si>
-    <t>RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors 100 OHM 1%</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100RL?qs=sGAEpiMZZMvdGkrng054txdMlaQGj9fiaLtoULAqhv0%3D</t>
-  </si>
-  <si>
     <t>RC0603FR-074K22L</t>
   </si>
   <si>
@@ -229,15 +220,6 @@
     <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDFRS%252Bk3sHilE%3D</t>
   </si>
   <si>
-    <t xml:space="preserve">RC0603FR-0710ML </t>
-  </si>
-  <si>
-    <t>Thick Film Resistors 10M OHM 1%</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710ML?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRC6jLGNvjt5I%3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">RC0603FR-07100KL </t>
   </si>
   <si>
@@ -247,43 +229,52 @@
     <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDdhxZrjTa1PE%3D</t>
   </si>
   <si>
+    <t>C0603C104Z3VACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 25V 0.1uF 0603 Y5V -20/+80% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/KEMET/C0603C104Z3VACTU?qs=sGAEpiMZZMvsSlwiRhF8qiamir66WTSkBwWGHarofks%3D</t>
+  </si>
+  <si>
     <t>Capacitors</t>
   </si>
   <si>
     <t>KEMET</t>
   </si>
   <si>
-    <t>C0603C104Z3VACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 25V 0.1uF 0603 Y5V -20/+80% </t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/KEMET/C0603C104Z3VACTU?qs=sGAEpiMZZMvsSlwiRhF8qiamir66WTSkBwWGHarofks%3D</t>
+    <t>885012206077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT WCAP-CSGP 100pF 0603 10% 50V </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D</t>
   </si>
   <si>
     <t>Wurth Electronics</t>
   </si>
   <si>
-    <t>885012206077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT WCAP-CSGP 100pF 0603 10% 50V </t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D</t>
+    <t>TMK107BJ224KAHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 0.22uF 25V X5R +/-10% 0603 AEC-Q200 </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT</t>
   </si>
   <si>
     <t>Taiyo Yuden</t>
   </si>
   <si>
-    <t>TMK107BJ224KAHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 0.22uF 25V X5R +/-10% 0603 AEC-Q200 </t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT</t>
+    <t xml:space="preserve">PA4342.683ANLT </t>
+  </si>
+  <si>
+    <t>Fixed Inductors 68uH 2.4A 4mm 20% SMT</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Pulse-Electronics/PA4342683ANLT?qs=%2Fha2pyFadugdwt6muDF2KGpAZHQr0GYYlbDtsVgx14o%3D</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -292,37 +283,28 @@
     <t>Pulse Electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">PA4342.683ANLT </t>
-  </si>
-  <si>
-    <t>Fixed Inductors 68uH 2.4A 4mm 20% SMT</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Pulse-Electronics/PA4342683ANLT?qs=%2Fha2pyFadugdwt6muDF2KGpAZHQr0GYYlbDtsVgx14o%3D</t>
+    <t xml:space="preserve">VZL101M1ETR-0607 </t>
+  </si>
+  <si>
+    <t>Aluminium Electrolytic Capacitors - SMD 100uF 25 Volts 20%</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Lelon/VZL101M1ETR-0607?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqln6GMM%2Fhxo91ynsHGUctQA%3D%3D</t>
   </si>
   <si>
     <t>Lelon</t>
   </si>
   <si>
-    <t xml:space="preserve">VZL101M1ETR-0607 </t>
-  </si>
-  <si>
-    <t>Aluminium Electrolytic Capacitors - SMD 100uF 25 Volts 20%</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Lelon/VZL101M1ETR-0607?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqln6GMM%2Fhxo91ynsHGUctQA%3D%3D</t>
+    <t>UWT1H221MNL1GS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium Electrolytic Capacitors - SMD 50volts 220uF 10x10 '20% </t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Nichicon/UWT1H221MNL1GS?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVGlVEB2AeLYo%3D</t>
   </si>
   <si>
     <t>Nichicon</t>
-  </si>
-  <si>
-    <t>UWT1H221MNL1GS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluminium Electrolytic Capacitors - SMD 50volts 220uF 10x10 '20% </t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Nichicon/UWT1H221MNL1GS?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVGlVEB2AeLYo%3D</t>
   </si>
   <si>
     <t xml:space="preserve"> Motor Controller</t>
@@ -387,9 +369,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,17 +399,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,8 +433,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -438,23 +456,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,24 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,43 +502,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,7 +538,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F5D6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,163 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,21 +908,6 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,11 +936,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,13 +977,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,17 +1001,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,142 +1014,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,22 +1168,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,77 +1189,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1701,20 +1641,20 @@
   </sheetPr>
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.62222222222222" customWidth="1"/>
+    <col min="2" max="2" width="21.6222222222222" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="82.25" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="180.875" customWidth="1"/>
+    <col min="4" max="4" width="19.1259259259259" customWidth="1"/>
+    <col min="5" max="5" width="82.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="10.3777777777778" customWidth="1"/>
+    <col min="7" max="7" width="8.62222222222222" customWidth="1"/>
+    <col min="8" max="8" width="180.874074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1"/>
@@ -1737,7 +1677,7 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1754,524 +1694,487 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>2</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="2:8">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="13">
         <v>5</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="2:8">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="2:8">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="7">
         <v>1706756</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="2:8">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="7">
         <v>1710056</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="2:8">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="13">
         <v>10</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="2:8">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="2:8">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="13">
+        <v>5</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="2:8">
+      <c r="B11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13">
         <v>2</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="2:8">
-      <c r="B11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="H11" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="2:8">
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="2:8">
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13">
+        <v>100</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" ht="16" customHeight="1" spans="2:8">
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13">
+        <v>10</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="2:8">
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="26">
+        <v>20</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="1" spans="2:8">
+      <c r="B16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="26">
+        <v>100</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="2:8">
+      <c r="B17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="26">
+        <v>100</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1" spans="2:8">
+      <c r="B18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="26">
+        <v>50</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1" spans="2:8">
+      <c r="B19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="26">
+        <v>50</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="1" spans="2:8">
+      <c r="B20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="26">
         <v>5</v>
       </c>
-      <c r="H11" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="2:8">
-      <c r="B12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="H20" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1" spans="2:8">
+      <c r="B21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G21" s="26">
         <v>2</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="2:8">
-      <c r="B13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="H21" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1" spans="2:8">
+      <c r="B22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="34">
-        <v>2</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="2:8">
-      <c r="B14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="G22" s="13">
+        <v>5</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="1" spans="2:8">
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="34">
-        <v>100</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="2:8">
-      <c r="B15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="34">
-        <v>10</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="2:8">
-      <c r="B16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="37">
-        <v>20</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="2:8">
-      <c r="B17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="36">
-        <v>100</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="2:8">
-      <c r="B18" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="36">
-        <v>10</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="2:8">
-      <c r="B19" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="G23" s="27">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="1" spans="2:3">
+      <c r="B24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="36">
-        <v>100</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="2:8">
-      <c r="B20" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="36">
-        <v>50</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="2:8">
-      <c r="B21" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="36">
-        <v>50</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1" spans="2:8">
-      <c r="B22" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="36">
-        <v>5</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1" spans="2:8">
-      <c r="B23" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="36">
-        <v>2</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="1" spans="2:8">
-      <c r="B24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="34">
-        <v>4</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1" spans="2:8">
-      <c r="B25" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="39">
-        <v>5</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    </row>
+    <row r="25" ht="16" customHeight="1"/>
     <row r="32" spans="6:6">
-      <c r="F32" s="41"/>
+      <c r="F32" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2282,22 +2185,20 @@
     <hyperlink ref="H7" r:id="rId4" display="https://eu.mouser.com/ProductDetail/Phoenix-Contact/1710056?qs=sGAEpiMZZMvZTcaMAxB2ABBNmx7J9ErWGaY6GpdlOPw%3D"/>
     <hyperlink ref="H9" r:id="rId5" display="https://eu.mouser.com/ProductDetail/Infineon-IR/IRF7580MTRPBF?qs=%2Fha2pyFaduheoRF4NWRuso0QsA4125mD2I3tz5lckd0%3D"/>
     <hyperlink ref="H8" r:id="rId6" display="https://eu.mouser.com/ProductDetail/755-BAT54SHMFHT116"/>
-    <hyperlink ref="H10" r:id="rId7" display="https://eu.mouser.com/ProductDetail/833-SK54L-TP"/>
-    <hyperlink ref="H11" r:id="rId8" display="https://eu.mouser.com/ProductDetail/833-B5817W-TP"/>
-    <hyperlink ref="H12" r:id="rId9" display="https://eu.mouser.com/ProductDetail/Bourns/CSS2H-3920R-1L00FE?qs=sGAEpiMZZMtlleCFQhR%2FzRv21WPTCkfbP65ISb40hY5JeUeR6gbObQ%3D%3D" tooltip="https://eu.mouser.com/ProductDetail/Bourns/CSS2H-3920R-1L00FE?qs=sGAEpiMZZMtlleCFQhR%2FzRv21WPTCkfbP65ISb40hY5JeUeR6gbObQ%3D%3D"/>
-    <hyperlink ref="H13" r:id="rId10" display="https://eu.mouser.com/ProductDetail/Murata-Electronics/NCU18WF104J60RB?qs=sGAEpiMZZMuBd0%252BwiCVS22pDpu%2FooVvOgr9XH7US5LzmmZTwDKfVRQ%3D%3D"/>
-    <hyperlink ref="H14" r:id="rId11" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100RL?qs=sGAEpiMZZMvdGkrng054txdMlaQGj9fiaLtoULAqhv0%3D"/>
-    <hyperlink ref="H15" r:id="rId12" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-074K22L?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRiD9rIGzKoM4%3D"/>
-    <hyperlink ref="H16" r:id="rId13" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-072R2L?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xQlq9a62Wvu8%3D"/>
-    <hyperlink ref="H17" r:id="rId14" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDFRS%252Bk3sHilE%3D"/>
-    <hyperlink ref="H18" r:id="rId15" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710ML?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRC6jLGNvjt5I%3D"/>
-    <hyperlink ref="H19" r:id="rId16" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDdhxZrjTa1PE%3D"/>
-    <hyperlink ref="H20" r:id="rId17" display="https://eu.mouser.com/ProductDetail/KEMET/C0603C104Z3VACTU?qs=sGAEpiMZZMvsSlwiRhF8qiamir66WTSkBwWGHarofks%3D"/>
-    <hyperlink ref="H21" r:id="rId18" display="https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D" tooltip="https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D"/>
-    <hyperlink ref="H22" r:id="rId19" display="https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT" tooltip="https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT"/>
-    <hyperlink ref="H23" r:id="rId20" display="https://eu.mouser.com/ProductDetail/Pulse-Electronics/PA4342683ANLT?qs=%2Fha2pyFadugdwt6muDF2KGpAZHQr0GYYlbDtsVgx14o%3D"/>
-    <hyperlink ref="H24" r:id="rId21" display="https://eu.mouser.com/ProductDetail/Lelon/VZL101M1ETR-0607?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqln6GMM%2Fhxo91ynsHGUctQA%3D%3D"/>
-    <hyperlink ref="H25" r:id="rId22" display="https://eu.mouser.com/ProductDetail/Nichicon/UWT1H221MNL1GS?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVGlVEB2AeLYo%3D"/>
+    <hyperlink ref="H10" r:id="rId7" display="https://eu.mouser.com/ProductDetail/833-B5817W-TP"/>
+    <hyperlink ref="H11" r:id="rId8" display="https://eu.mouser.com/ProductDetail/Bourns/CSS2H-3920R-1L00FE?qs=sGAEpiMZZMtlleCFQhR%2FzRv21WPTCkfbP65ISb40hY5JeUeR6gbObQ%3D%3D" tooltip="https://eu.mouser.com/ProductDetail/Bourns/CSS2H-3920R-1L00FE?qs=sGAEpiMZZMtlleCFQhR%2FzRv21WPTCkfbP65ISb40hY5JeUeR6gbObQ%3D%3D"/>
+    <hyperlink ref="H12" r:id="rId9" display="https://eu.mouser.com/ProductDetail/Murata-Electronics/NCU18WF104J60RB?qs=sGAEpiMZZMuBd0%252BwiCVS22pDpu%2FooVvOgr9XH7US5LzmmZTwDKfVRQ%3D%3D"/>
+    <hyperlink ref="H13" r:id="rId10" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100RL?qs=sGAEpiMZZMvdGkrng054txdMlaQGj9fiaLtoULAqhv0%3D"/>
+    <hyperlink ref="H14" r:id="rId11" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-074K22L?qs=sGAEpiMZZMvdGkrng054t8Tx25L%252BvTaRiD9rIGzKoM4%3D"/>
+    <hyperlink ref="H15" r:id="rId12" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-072R2L?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xQlq9a62Wvu8%3D"/>
+    <hyperlink ref="H16" r:id="rId13" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-0710KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDFRS%252Bk3sHilE%3D"/>
+    <hyperlink ref="H17" r:id="rId14" display="https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDdhxZrjTa1PE%3D"/>
+    <hyperlink ref="H18" r:id="rId15" display="https://eu.mouser.com/ProductDetail/KEMET/C0603C104Z3VACTU?qs=sGAEpiMZZMvsSlwiRhF8qiamir66WTSkBwWGHarofks%3D"/>
+    <hyperlink ref="H19" r:id="rId16" display="https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D" tooltip="https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D"/>
+    <hyperlink ref="H20" r:id="rId17" display="https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT" tooltip="https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT"/>
+    <hyperlink ref="H21" r:id="rId18" display="https://eu.mouser.com/ProductDetail/Pulse-Electronics/PA4342683ANLT?qs=%2Fha2pyFadugdwt6muDF2KGpAZHQr0GYYlbDtsVgx14o%3D"/>
+    <hyperlink ref="H22" r:id="rId19" display="https://eu.mouser.com/ProductDetail/Lelon/VZL101M1ETR-0607?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqln6GMM%2Fhxo91ynsHGUctQA%3D%3D"/>
+    <hyperlink ref="H23" r:id="rId20" display="https://eu.mouser.com/ProductDetail/Nichicon/UWT1H221MNL1GS?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVGlVEB2AeLYo%3D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2309,24 +2210,25 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:H25"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="3.62222222222222" customWidth="1"/>
+    <col min="2" max="2" width="16.3777777777778" customWidth="1"/>
+    <col min="3" max="3" width="13.3777777777778" customWidth="1"/>
+    <col min="4" max="4" width="10.8740740740741" customWidth="1"/>
     <col min="5" max="5" width="61" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="113.125" customWidth="1"/>
+    <col min="6" max="6" width="10.3777777777778" customWidth="1"/>
+    <col min="7" max="7" width="8.62222222222222" customWidth="1"/>
+    <col min="8" max="8" width="113.125925925926" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.5"/>
     <row r="2" ht="15" customHeight="1" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2346,31 +2248,31 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:8">
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>106</v>
+      <c r="H3" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -2378,45 +2280,45 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="6"/>
@@ -2425,152 +2327,153 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="18"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="18"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="18"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="18"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="18"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" ht="15" spans="2:8">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="19"/>
-    </row>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" ht="13.5" spans="2:8">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" ht="13.5"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671" tooltip="https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671"/>
@@ -2585,24 +2488,25 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A2:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="48.125" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="90.125" customWidth="1"/>
+    <col min="1" max="1" width="3.62222222222222" customWidth="1"/>
+    <col min="2" max="2" width="6.37777777777778" customWidth="1"/>
+    <col min="3" max="3" width="13.3777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.1259259259259" customWidth="1"/>
+    <col min="5" max="5" width="48.1259259259259" customWidth="1"/>
+    <col min="6" max="6" width="10.3777777777778" customWidth="1"/>
+    <col min="7" max="7" width="8.62222222222222" customWidth="1"/>
+    <col min="8" max="8" width="90.1259259259259" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.5"/>
     <row r="2" ht="16" customHeight="1" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2622,31 +2526,31 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="2:8">
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>111</v>
+      <c r="H3" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2655,9 +2559,9 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5"/>
@@ -2665,9 +2569,9 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5"/>
@@ -2675,9 +2579,9 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5"/>
@@ -2685,9 +2589,9 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5"/>
@@ -2695,9 +2599,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5"/>
@@ -2705,9 +2609,9 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
@@ -2715,9 +2619,9 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
@@ -2725,9 +2629,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5"/>
@@ -2735,127 +2639,128 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="18"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="18"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="18"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="18"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="18"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" ht="15" spans="2:8">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="19"/>
-    </row>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" ht="13.5" spans="2:8">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" ht="13.5"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="https://hobbyking.com/pt_pt/kd-53-30-high-voltage-brushless-outrunner-190kv.html"/>

--- a/documentation/bom-component-request.xlsx
+++ b/documentation/bom-component-request.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12315" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12375" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="4" r:id="rId1"/>
-    <sheet name="Farnell" sheetId="5" r:id="rId2"/>
+    <sheet name="Digikey" sheetId="5" r:id="rId2"/>
     <sheet name="HobbyKing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -319,7 +319,31 @@
     <t>Motor Field Oriented Controller, BLDC, DC Motor, PMSM, Stepper</t>
   </si>
   <si>
-    <t>https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671</t>
+    <t>https://www.digikey.com/products/en?keywords=TMC4671-ES</t>
+  </si>
+  <si>
+    <t>Programmer cable</t>
+  </si>
+  <si>
+    <t>TagConnect</t>
+  </si>
+  <si>
+    <t>TC2050-IDC-NL-ND</t>
+  </si>
+  <si>
+    <t>Programmers  Accessories</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/tag-connect-llc/TC2050-IDC-NL/TC2050-IDC-NL-ND/2605367</t>
+  </si>
+  <si>
+    <t>tc cable clip</t>
+  </si>
+  <si>
+    <t>TC2050-CLIP-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/tag-connect-llc/TC2050-CLIP/TC2050-CLIP-ND/2605374</t>
   </si>
   <si>
     <t>BLDC</t>
@@ -342,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -363,34 +387,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -398,29 +406,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,7 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +431,13 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,38 +452,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +483,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +510,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -538,49 +562,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,121 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,6 +941,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,17 +975,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,6 +1010,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -991,165 +1033,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,13 +1225,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="48" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,7 +1246,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1641,8 +1668,8 @@
   </sheetPr>
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1723,7 +1750,7 @@
       <c r="G4" s="13">
         <v>5</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1746,7 +1773,7 @@
       <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1769,7 +1796,7 @@
       <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1792,7 +1819,7 @@
       <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1815,7 +1842,7 @@
       <c r="G8" s="13">
         <v>10</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1829,16 +1856,16 @@
       <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="13">
-        <v>10</v>
-      </c>
-      <c r="H9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1855,36 +1882,36 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="13">
         <v>5</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="2:8">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="13">
         <v>2</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1892,7 +1919,7 @@
       <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1901,13 +1928,13 @@
       <c r="E12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="13">
         <v>2</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1924,13 +1951,13 @@
       <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="13">
         <v>100</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1947,13 +1974,13 @@
       <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="13">
         <v>10</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1964,168 +1991,168 @@
       <c r="C15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="27">
         <v>20</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="2:8">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="27">
         <v>100</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="2:8">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="27">
         <v>100</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="2:8">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="27">
         <v>50</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="2:8">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="27">
         <v>50</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="2:8">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="27">
         <v>5</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="2:8">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="27">
         <v>2</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="26" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="2:8">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2137,7 +2164,7 @@
       <c r="G22" s="13">
         <v>5</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="26" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2154,13 +2181,13 @@
       <c r="E23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="28">
         <v>5</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2168,13 +2195,13 @@
       <c r="B24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1"/>
     <row r="32" spans="6:6">
-      <c r="F32" s="29"/>
+      <c r="F32" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2212,8 +2239,8 @@
   </sheetPr>
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2269,29 +2296,57 @@
         <v>11</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="6"/>
@@ -2476,7 +2531,9 @@
     <row r="26" ht="13.5"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671" tooltip="https://pt.farnell.com/trinamic/tmc4671-es/motor-controller-bldc-pmsm-stepper/dp/2916492?st=TMC4671"/>
+    <hyperlink ref="H3" r:id="rId1" display="https://www.digikey.com/products/en?keywords=TMC4671-ES" tooltip="https://www.digikey.com/products/en?keywords=TMC4671-ES"/>
+    <hyperlink ref="H4" r:id="rId2" display="https://www.digikey.com/product-detail/en/tag-connect-llc/TC2050-IDC-NL/TC2050-IDC-NL-ND/2605367"/>
+    <hyperlink ref="H5" r:id="rId3" display="https://www.digikey.com/product-detail/en/tag-connect-llc/TC2050-CLIP/TC2050-CLIP-ND/2605374"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2532,16 +2589,16 @@
     </row>
     <row r="3" ht="16" customHeight="1" spans="2:8">
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>11</v>
@@ -2550,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/documentation/bom-component-request.xlsx
+++ b/documentation/bom-component-request.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,12 @@
     <t>https://eu.mouser.com/ProductDetail/833-B5817W-TP</t>
   </si>
   <si>
+    <t>Sense Resistors</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
     <t>LRMAP3920B-R0007FT</t>
   </si>
   <si>
@@ -157,10 +163,10 @@
     <t>https://eu.mouser.com/ProductDetail/Bourns/CSS2H-3920R-1L00FE?qs=sGAEpiMZZMtlleCFQhR%2FzRv21WPTCkfbP65ISb40hY5JeUeR6gbObQ%3D%3D</t>
   </si>
   <si>
-    <t>Sense Resistors</t>
-  </si>
-  <si>
-    <t>Bourns</t>
+    <t>NTC</t>
+  </si>
+  <si>
+    <t>Murata</t>
   </si>
   <si>
     <t>NCU18WF104J60RB</t>
@@ -172,10 +178,10 @@
     <t>https://eu.mouser.com/ProductDetail/Murata-Electronics/NCU18WF104J60RB?qs=sGAEpiMZZMuBd0%252BwiCVS22pDpu%2FooVvOgr9XH7US5LzmmZTwDKfVRQ%3D%3D</t>
   </si>
   <si>
-    <t>NTC</t>
-  </si>
-  <si>
-    <t>Murata</t>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Yageo</t>
   </si>
   <si>
     <t>RC0603FR-07100RL</t>
@@ -187,12 +193,6 @@
     <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100RL?qs=sGAEpiMZZMvdGkrng054txdMlaQGj9fiaLtoULAqhv0%3D</t>
   </si>
   <si>
-    <t>Resistors</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
     <t>RC0603FR-074K22L</t>
   </si>
   <si>
@@ -229,6 +229,12 @@
     <t>https://eu.mouser.com/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMvdGkrng054t%252BZQNaZdkHZDdhxZrjTa1PE%3D</t>
   </si>
   <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
     <t>C0603C104Z3VACTU</t>
   </si>
   <si>
@@ -238,10 +244,7 @@
     <t>https://eu.mouser.com/ProductDetail/KEMET/C0603C104Z3VACTU?qs=sGAEpiMZZMvsSlwiRhF8qiamir66WTSkBwWGHarofks%3D</t>
   </si>
   <si>
-    <t>Capacitors</t>
-  </si>
-  <si>
-    <t>KEMET</t>
+    <t>Wurth Electronics</t>
   </si>
   <si>
     <t>885012206077</t>
@@ -253,7 +256,7 @@
     <t>https://eu.mouser.com/ProductDetail/Wurth-Electronics/885012206077?qs=sGAEpiMZZMs0AnBnWHyRQEGbLOF2VP1ifEG7bbQtSXBTkrdge3siAA%3D%3D</t>
   </si>
   <si>
-    <t>Wurth Electronics</t>
+    <t>Taiyo Yuden</t>
   </si>
   <si>
     <t>TMK107BJ224KAHT</t>
@@ -265,7 +268,10 @@
     <t>https://eu.mouser.com/ProductDetail/963-TMK107BJ224KAHT</t>
   </si>
   <si>
-    <t>Taiyo Yuden</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Pulse Electronics</t>
   </si>
   <si>
     <t xml:space="preserve">PA4342.683ANLT </t>
@@ -277,10 +283,7 @@
     <t>https://eu.mouser.com/ProductDetail/Pulse-Electronics/PA4342683ANLT?qs=%2Fha2pyFadugdwt6muDF2KGpAZHQr0GYYlbDtsVgx14o%3D</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>Pulse Electronics</t>
+    <t>Lelon</t>
   </si>
   <si>
     <t xml:space="preserve">VZL101M1ETR-0607 </t>
@@ -292,7 +295,7 @@
     <t>https://eu.mouser.com/ProductDetail/Lelon/VZL101M1ETR-0607?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqln6GMM%2Fhxo91ynsHGUctQA%3D%3D</t>
   </si>
   <si>
-    <t>Lelon</t>
+    <t>Nichicon</t>
   </si>
   <si>
     <t>UWT1H221MNL1GS</t>
@@ -302,9 +305,6 @@
   </si>
   <si>
     <t>https://eu.mouser.com/ProductDetail/Nichicon/UWT1H221MNL1GS?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVGlVEB2AeLYo%3D</t>
-  </si>
-  <si>
-    <t>Nichicon</t>
   </si>
   <si>
     <t xml:space="preserve"> Motor Controller</t>
@@ -366,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -407,17 +407,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,8 +429,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -437,9 +445,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,43 +469,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,23 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +512,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,25 +562,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,133 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +932,21 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,17 +960,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,22 +984,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,17 +1023,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,134 +1038,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1173,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,23 +1228,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="48" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1668,8 +1665,8 @@
   </sheetPr>
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1750,7 +1747,7 @@
       <c r="G4" s="13">
         <v>5</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1773,7 +1770,7 @@
       <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1796,7 +1793,7 @@
       <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1819,7 +1816,7 @@
       <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1842,7 +1839,7 @@
       <c r="G8" s="13">
         <v>10</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1859,13 +1856,13 @@
       <c r="E9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="13">
         <v>15</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1882,91 +1879,91 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="13">
         <v>5</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="2:8">
-      <c r="B11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>39</v>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="13">
         <v>2</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>45</v>
+      <c r="H11" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="2:8">
       <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="13">
         <v>2</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>50</v>
+      <c r="H12" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="2:8">
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="13">
         <v>100</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>55</v>
+      <c r="H13" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="2:8">
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>58</v>
@@ -1974,189 +1971,189 @@
       <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="13">
         <v>10</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="2:8">
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="B15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <v>20</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="2:8">
-      <c r="B16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="B16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>100</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="2:8">
-      <c r="B17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <v>100</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="2:8">
-      <c r="B18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="D18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <v>50</v>
       </c>
-      <c r="H18" s="26" t="s">
-        <v>72</v>
+      <c r="H18" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="2:8">
-      <c r="B19" s="22" t="s">
-        <v>73</v>
+      <c r="B19" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <v>50</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>77</v>
+      <c r="H19" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="2:8">
-      <c r="B20" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="B20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <v>5</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>81</v>
+      <c r="H20" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="2:8">
-      <c r="B21" s="22" t="s">
-        <v>73</v>
+      <c r="B21" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="D21" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <v>2</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>85</v>
+      <c r="H21" s="25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="2:8">
-      <c r="B22" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>87</v>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>11</v>
@@ -2164,44 +2161,37 @@
       <c r="G22" s="13">
         <v>5</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>90</v>
+      <c r="H22" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="2:8">
-      <c r="B23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>91</v>
+      <c r="B23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>5</v>
       </c>
-      <c r="H23" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="1" spans="2:3">
-      <c r="B24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="H23" s="28" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="24" ht="16" customHeight="1"/>
     <row r="25" ht="16" customHeight="1"/>
     <row r="32" spans="6:6">
-      <c r="F32" s="30"/>
+      <c r="F32" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2239,7 +2229,7 @@
   </sheetPr>
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
